--- a/Banco Central/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5348,7 +5351,7 @@
         <v>229</v>
       </c>
       <c r="B222">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="C222">
         <v>98.36</v>
@@ -5358,6 +5361,23 @@
       </c>
       <c r="E222">
         <v>48.45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223">
+        <v>96.28</v>
+      </c>
+      <c r="C223">
+        <v>95.06999999999999</v>
+      </c>
+      <c r="D223">
+        <v>144.36</v>
+      </c>
+      <c r="E223">
+        <v>45.15</v>
       </c>
     </row>
   </sheetData>
